--- a/static/reporte_usuarios.xlsx
+++ b/static/reporte_usuarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Genesis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cadillo</t>
+          <t>Campos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>samu@gmail.com</t>
+          <t>genesis@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,45 +496,80 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>samy</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>Admin</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Adriana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cadillo</t>
+          <t>Cordero</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>benjamincadillo32@gmail.com</t>
+          <t>adri@gmail.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77587271</t>
+          <t>65771213</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>cad</t>
+          <t>adri</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>lector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Josue</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cadena</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>lopezobrador@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76526121</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>josu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>admin</t>
         </is>

--- a/static/reporte_usuarios.xlsx
+++ b/static/reporte_usuarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,71 +507,141 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adriana</t>
+          <t>Moises</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cordero</t>
+          <t>Cadillo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>adri@gmail.com</t>
+          <t>moises32@gmail.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65771213</t>
+          <t>77587271</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>adri</t>
+          <t>moi</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>lector</t>
+          <t>Bibliotecario</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Josue</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cadena</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>lopezobrador@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76526121</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>josu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bibliotecario</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Josue</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Cadena</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>lopezobrador@gmail.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76526121</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>josu</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>admin</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Cadillo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>benjamincadillo32@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77587271</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>benja</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Armando</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Carpas</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>armandocarpas@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67745842</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>armi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lector</t>
         </is>
       </c>
     </row>
